--- a/medicine/Mort/Cimetière_de_Poggioreale/Cimetière_de_Poggioreale.xlsx
+++ b/medicine/Mort/Cimetière_de_Poggioreale/Cimetière_de_Poggioreale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Poggioreale</t>
+          <t>Cimetière_de_Poggioreale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Poggioreale (en italien:Cimitero di Poggioreale connu aussi sous le nom de Camposanto Nuovo[1]) est l'un des principaux cimetières de Naples.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Poggioreale (en italien:Cimitero di Poggioreale connu aussi sous le nom de Camposanto Nuovo) est l'un des principaux cimetières de Naples.
 Le cimetière est délimité par la Via del Riposo de Largo Santa Maria del Pianto, Via Santa Maria del Pianto et via nuova Poggioreale.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Poggioreale</t>
+          <t>Cimetière_de_Poggioreale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été commencé pendant l'occupation napoléonienne et remodelé en 1836-1837. 
 À l'extrémité sud-ouest, une place est réservée aux napolitains notables : « Quadrato degli uomini illustri » (Carré pour hommes illustres). 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Poggioreale</t>
+          <t>Cimetière_de_Poggioreale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnages inhumés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Giovanni Amendola,
 Tito Angelini,
@@ -560,7 +576,7 @@
 Luigi Giura,
 E. A. Mario,
 Saverio Mercadante,
-Antonio Niccolini[2],
+Antonio Niccolini,
 Ferdinando Russo,
 Francesco De Sanctis,
 Luigi Settembrini,
